--- a/biology/Zoologie/Heliconius_charithonia/Heliconius_charithonia.xlsx
+++ b/biology/Zoologie/Heliconius_charithonia/Heliconius_charithonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius charithonia est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 Il a été déclaré papillon officiel de l'État de Floride en 1996.
@@ -512,14 +524,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius charithonia a été nommé par Carl von Linné en 1767.
-Synonymes :Papilio charithonia Linnaeus, 1767[1]
-Noms vernaculaires
-Heliconius charithonia se nomme Zebra Longwing en anglais.
-Sous-espèces
-Heliconius charithonia charithonia en Équateur
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius charithonia a été nommé par Carl von Linné en 1767.
+Synonymes :Papilio charithonia Linnaeus, 1767
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius charithonia se nomme Zebra Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Heliconius charithonia charithonia en Équateur
 Heliconius charithonia antiquus Lamas, 1988 ; à Antigua.
 Heliconius charithonia bassleri Comstock &amp; Brown, 1950 ; en Colombie.
 Heliconius charithonia churchi Comstock &amp; Brown, 1950 ; à Haïti
@@ -528,72 +612,7 @@
 Heliconius charithonia ramsdeni Comstock &amp; Brown, 1950 ;  à Cuba
 Heliconius charithonia simulator Röber, 1921 ; à la Jamaïque
 Heliconius charithonia tuckeri Comstock &amp; Brown, 1950 ; en Floride
-Heliconius charithonia vazquezae Comstock &amp; Brown, 1950 ; au Mexique[1].
-Phylogénèse</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_charithonia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un très grand papillon aux ailes allongées et arrondies noires ou marron foncé zébré de bandes blanches.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_charithonia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'œuf de cet insecte contient du cyanure et d'autres éléments toxiques provenant des plantes que les adultes ont mangées.
-Plantes hôtes
-Les plantes hôtes sont des Passiflora ou passiflore, dont Passiflora suberosa, Passiflora lutea et Passiflora affinis[2].
-</t>
+Heliconius charithonia vazquezae Comstock &amp; Brown, 1950 ; au Mexique.</t>
         </is>
       </c>
     </row>
@@ -618,15 +637,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique, dans le sud des États-Unis (en Floride, Géorgie, Virginie, Caroline du Sud et Caroline du Nord, au Mexique, à la Jamaïque, à Cuba et à Haïti, en Amérique centrale Équateur, Colombie, et dans toute l'Amérique du Sud[1].
-Il est émigrant occasionnel au nord de sa zone de résidence, ce qui explique qu'il soit trouvé en Géorgie, Virginie, Caroline du Sud et Caroline du Nord.
-Biotope
-Son habitat est la forêt en particulier la forêt tropicale.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très grand papillon aux ailes allongées et arrondies noires ou marron foncé zébré de bandes blanches.
 </t>
         </is>
       </c>
@@ -652,10 +670,153 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuf de cet insecte contient du cyanure et d'autres éléments toxiques provenant des plantes que les adultes ont mangées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Passiflora ou passiflore, dont Passiflora suberosa, Passiflora lutea et Passiflora affinis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique, dans le sud des États-Unis (en Floride, Géorgie, Virginie, Caroline du Sud et Caroline du Nord, au Mexique, à la Jamaïque, à Cuba et à Haïti, en Amérique centrale Équateur, Colombie, et dans toute l'Amérique du Sud.
+Il est émigrant occasionnel au nord de sa zone de résidence, ce qui explique qu'il soit trouvé en Géorgie, Virginie, Caroline du Sud et Caroline du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt en particulier la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_charithonia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1982 (valeur faciale : 5 c.).
 </t>
